--- a/Sem14/PC4.xlsx
+++ b/Sem14/PC4.xlsx
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +65,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,23 +102,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Énfasis5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,105 +420,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C3" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D3" s="5">
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C4" s="5">
         <v>0.60625000000000007</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D4" s="5">
         <v>0.62013888888888891</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C5" s="5">
         <v>0.62222222222222201</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D5" s="5">
         <v>0.63611111111111096</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C6" s="5">
         <v>0.63819444444444495</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D6" s="5">
         <v>0.65208333333333302</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C7" s="5">
         <v>0.65416666666666701</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D7" s="5">
         <v>0.66805555555555596</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C8" s="5">
         <v>0.67013888888888895</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D8" s="5">
         <v>0.68402777777777801</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C9" s="5">
         <v>0.68611111111111101</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D9" s="5">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>